--- a/output/fit_clients/fit_round_467.xlsx
+++ b/output/fit_clients/fit_round_467.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1979237971.118064</v>
+        <v>2263044779.644395</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07994642406618582</v>
+        <v>0.09416402109159719</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04089798116313059</v>
+        <v>0.03207716972990211</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>989618978.4004298</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2110929708.218753</v>
+        <v>1876355348.456692</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1321654656645588</v>
+        <v>0.1620188842718177</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03334453071875447</v>
+        <v>0.04487985498383502</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1055464911.365333</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3976427211.445198</v>
+        <v>3229154032.957988</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1408289137070618</v>
+        <v>0.1324029581608493</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03520751228468241</v>
+        <v>0.02812053658892697</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>169</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1988213618.263625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2994000162.546152</v>
+        <v>3685635752.987029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09066063367329405</v>
+        <v>0.09790353595136508</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04951875875917304</v>
+        <v>0.04997857391504543</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>173</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1497000151.574293</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2861151157.680145</v>
+        <v>1907656009.711416</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1084418506607128</v>
+        <v>0.1258984980324391</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03457809636315418</v>
+        <v>0.04163593798161928</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1430575515.256149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2301982569.000999</v>
+        <v>2260398457.762906</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08320510815984107</v>
+        <v>0.06322042074586598</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03691268907286065</v>
+        <v>0.03055660984804644</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>147</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1150991316.57533</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3887170881.743616</v>
+        <v>2560252217.413801</v>
       </c>
       <c r="F8" t="n">
-        <v>0.197430074112462</v>
+        <v>0.1622265886893258</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03290690339514927</v>
+        <v>0.02948995497261121</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>149</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1943585589.099977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2275506733.544196</v>
+        <v>2188714904.814354</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1616064102844535</v>
+        <v>0.1688577030037037</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02586306215207709</v>
+        <v>0.02749302644968469</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1137753355.181242</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4389646854.738414</v>
+        <v>3798444163.136719</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1342464731379314</v>
+        <v>0.1592214698833045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0474350407466014</v>
+        <v>0.0454058697145268</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>197</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2194823479.426293</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3427374593.99801</v>
+        <v>3902990598.015993</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1877419181903183</v>
+        <v>0.117775510675678</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04786516752417923</v>
+        <v>0.03476940149769493</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>193</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1713687269.747035</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2400794763.534122</v>
+        <v>2027278765.153149</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1218500533840544</v>
+        <v>0.1467294340053956</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05369373392655586</v>
+        <v>0.04080184235913454</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>158</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1200397344.938998</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3577462814.236243</v>
+        <v>4979357546.461114</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06511505206656333</v>
+        <v>0.0763206478579565</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02274261522317792</v>
+        <v>0.02341590325428162</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>157</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1788731483.527585</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3296650344.219439</v>
+        <v>3567811018.013871</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1298964099728887</v>
+        <v>0.1777695886601105</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03329797531054246</v>
+        <v>0.03135041370591132</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>150</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1648325185.087792</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1747413475.402838</v>
+        <v>1737273860.878716</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06946101041452334</v>
+        <v>0.07463730364795058</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03387981731625534</v>
+        <v>0.03242770419403634</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>873706879.3302231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2415650425.663192</v>
+        <v>2882525396.274814</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08723722187548774</v>
+        <v>0.08987809574150947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0338065491159034</v>
+        <v>0.04999241755332484</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>96</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1207825251.218236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4961091857.087561</v>
+        <v>5247246171.698825</v>
       </c>
       <c r="F17" t="n">
-        <v>0.14053973924858</v>
+        <v>0.1196401768305818</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04837628521865595</v>
+        <v>0.03913551637647723</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>137</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2480545915.67883</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2777257848.689681</v>
+        <v>2451031935.017661</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1827744607136122</v>
+        <v>0.1575707421448886</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02244909768829857</v>
+        <v>0.03149270352970664</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>153</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1388628970.712582</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>950644331.5489886</v>
+        <v>1161439537.864951</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1801540844636178</v>
+        <v>0.1351424297411024</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02248350098864097</v>
+        <v>0.02639437692142534</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>475322182.9994753</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2063916319.998886</v>
+        <v>1702994676.439773</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1053919669572305</v>
+        <v>0.1507228957248968</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02429851627152033</v>
+        <v>0.02038474501087388</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1031958179.542663</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1973905431.36982</v>
+        <v>2002461285.187048</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07098632047947659</v>
+        <v>0.0875040563734296</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04160857469697458</v>
+        <v>0.02820406708154535</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>986952754.1532263</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2616864552.006531</v>
+        <v>3961498500.559212</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1118181242815784</v>
+        <v>0.1336359109668197</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04773443168962905</v>
+        <v>0.05595797611314559</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1308432360.494471</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1057849173.140395</v>
+        <v>993455630.2390207</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1600423974461527</v>
+        <v>0.1460564760610685</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03385926297383018</v>
+        <v>0.03357118278749742</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>528924647.0299854</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2544004674.112822</v>
+        <v>3192647326.159702</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1107892229459667</v>
+        <v>0.1487508445140786</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02619358762213584</v>
+        <v>0.03507180884779599</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>137</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1272002402.982837</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1023860296.816644</v>
+        <v>1164513302.995929</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08011380141167886</v>
+        <v>0.09273993098392304</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02289560675353217</v>
+        <v>0.03043260990797362</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>511930206.9278543</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1142026545.226388</v>
+        <v>1408830360.355301</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09051809107373009</v>
+        <v>0.0749980268876074</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03296218743008478</v>
+        <v>0.03192217533849489</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>571013279.4846007</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3457822927.935988</v>
+        <v>2906061696.12669</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1445651273538744</v>
+        <v>0.1127958345505107</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02117888228473883</v>
+        <v>0.02658754321584122</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>112</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1728911501.070336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3039620192.59043</v>
+        <v>2753708206.613444</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1127480961928072</v>
+        <v>0.1172926078754553</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03842897144370338</v>
+        <v>0.04274093767930211</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>152</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1519810110.961838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5661622249.462313</v>
+        <v>4387851448.38343</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1421251048955444</v>
+        <v>0.1172799204239814</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0400991830695243</v>
+        <v>0.03425790754368498</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>206</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2830811026.478351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1522458521.902025</v>
+        <v>1966377707.224037</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08915785536068432</v>
+        <v>0.09286644598177597</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0336210355014748</v>
+        <v>0.02723726522574704</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>761229244.0412441</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>957252531.9021711</v>
+        <v>1330162777.979577</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1062548536596291</v>
+        <v>0.09592543353203881</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0408228702561008</v>
+        <v>0.03824930151909851</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>478626274.565272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1342625956.555029</v>
+        <v>1845797194.552918</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1028371650303197</v>
+        <v>0.07985779674218083</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03466088078403608</v>
+        <v>0.03501132209084454</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>671313014.0655638</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3054943901.588131</v>
+        <v>2265725322.518555</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1319877992930862</v>
+        <v>0.1549467345786809</v>
       </c>
       <c r="G33" t="n">
-        <v>0.043231818552104</v>
+        <v>0.04805227591356306</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>143</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1527471941.74849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1433530178.499248</v>
+        <v>1538979701.844523</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07471757214356067</v>
+        <v>0.1102270662642588</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02287711854269438</v>
+        <v>0.02536478521895836</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>716765056.0729511</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1223983537.530152</v>
+        <v>912433133.518808</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09616951887469034</v>
+        <v>0.09974768980928304</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0286378172952066</v>
+        <v>0.0300940075132832</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>611991738.2475612</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2110570717.912946</v>
+        <v>2581075887.787519</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1541179197676543</v>
+        <v>0.1451500515722243</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02145157383948565</v>
+        <v>0.02764296925271633</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>117</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1055285412.133182</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2109375213.148986</v>
+        <v>1856007557.906489</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07355848611834209</v>
+        <v>0.09929967989696226</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02755666941689441</v>
+        <v>0.02831120333571999</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>125</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1054687648.908237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1330227531.22581</v>
+        <v>1810399745.241831</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0909771648142845</v>
+        <v>0.09463035315617813</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03784400442947036</v>
+        <v>0.02502354667778927</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>665113838.8692665</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1354775313.477345</v>
+        <v>1392119610.549191</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1317427981399269</v>
+        <v>0.1670044188408937</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02849722453721094</v>
+        <v>0.02833306643501067</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>677387749.2710557</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1410199366.272526</v>
+        <v>1523824231.449286</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1120357974619317</v>
+        <v>0.1066903875653678</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0454026003183389</v>
+        <v>0.05510215853681089</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>705099671.838167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2161194791.912445</v>
+        <v>1788073714.312662</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1482583361193366</v>
+        <v>0.132608122892743</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04192874243783154</v>
+        <v>0.04522052014477247</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>113</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1080597454.400671</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4041814721.597963</v>
+        <v>3166763215.799751</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1272872168677277</v>
+        <v>0.0908079557212552</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04560762326060933</v>
+        <v>0.03008400042537855</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2020907392.993289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2557406061.540917</v>
+        <v>3022870750.570933</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1821663768116485</v>
+        <v>0.1877200589216296</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02530425937115277</v>
+        <v>0.01777961993028376</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>163</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1278703073.667846</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1489748607.323967</v>
+        <v>1728837426.326625</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0885975776020673</v>
+        <v>0.06794560297061961</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02495920706465419</v>
+        <v>0.03008826008056053</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>744874308.2137196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1786143085.080937</v>
+        <v>1943817107.182737</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1923480414759681</v>
+        <v>0.1483949308172005</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04984813572162385</v>
+        <v>0.05037624240058791</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>893071511.9132643</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4739826815.083652</v>
+        <v>4694171564.503593</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1097029922719027</v>
+        <v>0.1768968282760255</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04695482723548994</v>
+        <v>0.0444454657620612</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>166</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2369913419.463795</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3410005532.447531</v>
+        <v>3733758031.024225</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1541027494254732</v>
+        <v>0.1484597349905445</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05906386046426825</v>
+        <v>0.05561659382740329</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1705002731.954279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3082427712.693561</v>
+        <v>3077335616.847261</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08097902039440825</v>
+        <v>0.08203573472181706</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03269820335055937</v>
+        <v>0.0299577336456887</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>152</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1541213944.044824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1551995882.508458</v>
+        <v>1229073499.447748</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1611994033480797</v>
+        <v>0.1663662589619093</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03803339121035408</v>
+        <v>0.03508589011734312</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>775997965.2270778</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3498327801.175117</v>
+        <v>3449611429.033872</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1206723695477625</v>
+        <v>0.1276949849509512</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04024067297641572</v>
+        <v>0.05161604205528337</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>159</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1749163924.97292</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1526941129.771668</v>
+        <v>1255016781.029492</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1702556765557072</v>
+        <v>0.1838977996659873</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03710490436478456</v>
+        <v>0.04915192173189856</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>763470563.4747554</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4495365133.383846</v>
+        <v>3905608873.506268</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1135397155075307</v>
+        <v>0.09154684566843871</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05359163283503884</v>
+        <v>0.05665075091828442</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>193</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2247682594.035799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3188093915.3529</v>
+        <v>3534795048.483104</v>
       </c>
       <c r="F53" t="n">
-        <v>0.197283212868174</v>
+        <v>0.1682131536411994</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02612497500164629</v>
+        <v>0.03036840666093884</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>134</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1594046977.166069</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3069131340.781425</v>
+        <v>3175876216.035909</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1519836999364668</v>
+        <v>0.1211955846090642</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04795904586720697</v>
+        <v>0.03676165234715579</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>152</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1534565661.379965</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3049755489.762579</v>
+        <v>3896280295.604524</v>
       </c>
       <c r="F55" t="n">
-        <v>0.137656220595361</v>
+        <v>0.2193230429852306</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02750785714785251</v>
+        <v>0.03220765166457015</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>135</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1524877677.906291</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1694443225.00072</v>
+        <v>1791986631.539999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1215366178847706</v>
+        <v>0.146677679175499</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05588624662753081</v>
+        <v>0.03765725232890912</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>847221625.9645916</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4535428584.775913</v>
+        <v>3545943230.675457</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1797501383923835</v>
+        <v>0.1389246691396754</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01668235566243094</v>
+        <v>0.02326675985245092</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>148</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2267714425.73138</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1333512805.985516</v>
+        <v>1546157426.315856</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1761649095588482</v>
+        <v>0.1667430008558198</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02444724865364028</v>
+        <v>0.02723390750406722</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>666756449.3511062</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5056840947.038008</v>
+        <v>4232444361.772084</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08895288289374896</v>
+        <v>0.08247660030491254</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0465863920351352</v>
+        <v>0.04646522861048488</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2528420398.51858</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2876796802.917397</v>
+        <v>2410401771.275654</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1998224403923877</v>
+        <v>0.1636103797230419</v>
       </c>
       <c r="G60" t="n">
-        <v>0.021423706971115</v>
+        <v>0.02688148765004267</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>145</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1438398458.905603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2200181777.48206</v>
+        <v>2322456389.199884</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1252084000728484</v>
+        <v>0.1401820958763371</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02085467943010437</v>
+        <v>0.02339376366657355</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>159</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1100090944.657119</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1706750111.538444</v>
+        <v>2034627950.46911</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1771003907589308</v>
+        <v>0.132409425198899</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04381132997501878</v>
+        <v>0.03475295066252274</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>853375069.8366739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4919847665.040192</v>
+        <v>5220480161.85685</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08183679068340767</v>
+        <v>0.0896909330983881</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04086001225570222</v>
+        <v>0.04298856689904179</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2459923853.908556</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4985402023.915919</v>
+        <v>4898873406.912151</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1740650690502519</v>
+        <v>0.1529114783429917</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03330347878021069</v>
+        <v>0.02380186021804192</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>145</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2492701117.149441</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5592502544.373454</v>
+        <v>3661701231.53984</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1535941117361378</v>
+        <v>0.1669450830091024</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03000520622742977</v>
+        <v>0.03034596334100644</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>167</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2796251195.763091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3457715060.128561</v>
+        <v>5584132241.645937</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1331922093112778</v>
+        <v>0.1168713144716596</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03327701990981325</v>
+        <v>0.05093672342212606</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>137</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1728857474.655885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2830624327.348154</v>
+        <v>2109373095.642191</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08294424013744291</v>
+        <v>0.08102791948047716</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03703725841243847</v>
+        <v>0.03459089909342325</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>149</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1415312196.302619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4361686516.02593</v>
+        <v>5510354362.775365</v>
       </c>
       <c r="F68" t="n">
-        <v>0.146314796331257</v>
+        <v>0.1419709520985327</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04200374573827759</v>
+        <v>0.04688714465814006</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>148</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2180843275.731246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1969746810.264573</v>
+        <v>2149457303.993937</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1439080898055797</v>
+        <v>0.1507190403910607</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0372331246203233</v>
+        <v>0.03858581133502901</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>984873406.1748115</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3127270837.6681</v>
+        <v>3370518660.862645</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09570029257936431</v>
+        <v>0.09588589211802784</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03564944899760621</v>
+        <v>0.04192434350140176</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>134</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1563635404.086321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3726802877.308706</v>
+        <v>3471494404.046447</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1311641232731483</v>
+        <v>0.1748864314576381</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03179426512673759</v>
+        <v>0.02315446781075941</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>170</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1863401449.303289</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2068554434.48622</v>
+        <v>2045803748.892218</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09416678143003492</v>
+        <v>0.08218567744926659</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03331519966932446</v>
+        <v>0.03690202793555936</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1034277152.548762</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3278000537.877126</v>
+        <v>2779449105.40536</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09242913769446835</v>
+        <v>0.07672574678897019</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03471023543787038</v>
+        <v>0.050692712179722</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>176</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1639000239.475849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2802019206.564694</v>
+        <v>4014152037.68198</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1287056972786233</v>
+        <v>0.1783737599833037</v>
       </c>
       <c r="G74" t="n">
-        <v>0.026008413985948</v>
+        <v>0.03171024602095733</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>159</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1401009685.839998</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2167227695.120844</v>
+        <v>1906000426.444026</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1197404391441473</v>
+        <v>0.1433795599483211</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03741301568091159</v>
+        <v>0.02860785383418804</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1083613796.058836</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5262890375.753245</v>
+        <v>3461013199.346257</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09586998741799664</v>
+        <v>0.0886847702768386</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02802132905469732</v>
+        <v>0.03305266112896555</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2631445225.569329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1531449773.179517</v>
+        <v>2041226422.340365</v>
       </c>
       <c r="F77" t="n">
-        <v>0.155007906446276</v>
+        <v>0.1379319424584515</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01941046806542912</v>
+        <v>0.03125372294887331</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>765724878.9694711</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3344114427.456843</v>
+        <v>4598970465.256845</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09250961285041601</v>
+        <v>0.1103546280999571</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05679492341433777</v>
+        <v>0.03727678224883603</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>162</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1672057226.403289</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1365803457.979439</v>
+        <v>1767882055.076018</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1411083383108526</v>
+        <v>0.164414985314701</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03452999516094641</v>
+        <v>0.0381700613020727</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>682901739.7548362</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5623986670.403238</v>
+        <v>4742823178.701445</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07627841481155384</v>
+        <v>0.1004395778672535</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03228404915652886</v>
+        <v>0.0282305529112172</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2811993415.453659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4222338380.18328</v>
+        <v>4482727082.205709</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1026356052776646</v>
+        <v>0.09592607799848853</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02186448296331345</v>
+        <v>0.03269322822742684</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2111169161.563281</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5501027636.516953</v>
+        <v>3936292635.375696</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1308096220792065</v>
+        <v>0.1533793648591741</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01900553073298874</v>
+        <v>0.02414937107680226</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>163</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2750513774.252726</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1758062458.579126</v>
+        <v>2370244692.657911</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1097132750828255</v>
+        <v>0.103496420733564</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04144829864560112</v>
+        <v>0.03138381415811489</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>879031184.5367999</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1991813740.730272</v>
+        <v>1976954989.805005</v>
       </c>
       <c r="F84" t="n">
-        <v>0.110886238885762</v>
+        <v>0.0751515317417248</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03947943414950001</v>
+        <v>0.04505436405336691</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>995906876.5643562</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3310974845.493985</v>
+        <v>2698029886.400201</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1827070492501562</v>
+        <v>0.1830971551058354</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05030850170378244</v>
+        <v>0.04083282528345053</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>174</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1655487517.238182</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2533498402.070552</v>
+        <v>1704537519.941974</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1514270545791344</v>
+        <v>0.160408368256359</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02118597363128383</v>
+        <v>0.01686161192511406</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>59</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1266749302.859092</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1177499529.765365</v>
+        <v>1102389975.033426</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1427552297639165</v>
+        <v>0.1549529829991295</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03947276134334154</v>
+        <v>0.04244905512323708</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>588749814.7176434</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3412337787.852376</v>
+        <v>3649689292.343029</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1312817081874366</v>
+        <v>0.1668249276389501</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02452505087015752</v>
+        <v>0.0368740072028249</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>186</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1706168965.139357</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2962321131.129083</v>
+        <v>3401250722.131183</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1594288435020811</v>
+        <v>0.1409505867495537</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0293383897790204</v>
+        <v>0.02860647560307424</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>158</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1481160606.450114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1686978753.809239</v>
+        <v>2167438461.142868</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08417523508199497</v>
+        <v>0.1152507480504657</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03558101050126691</v>
+        <v>0.05649384910981068</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>843489389.8591806</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1724072118.201097</v>
+        <v>1774007239.371882</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1402541839366793</v>
+        <v>0.1253684322870897</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04425164860384495</v>
+        <v>0.05002474286800274</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>862036068.1522721</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2198195220.244338</v>
+        <v>2784807214.643332</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1075750595533348</v>
+        <v>0.0935599144716479</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04494155687656839</v>
+        <v>0.04544364461558494</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>128</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1099097571.302888</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3337714232.175603</v>
+        <v>4162067325.449825</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1348457673513444</v>
+        <v>0.1003213274887879</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05000618613904666</v>
+        <v>0.03811797079849754</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1668857159.561186</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2330819808.420928</v>
+        <v>1559489342.2788</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1657722269339321</v>
+        <v>0.1170103596304755</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03397050018964617</v>
+        <v>0.0296285518539192</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1165409945.612803</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2695346081.919372</v>
+        <v>2815465969.01616</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1045545870710513</v>
+        <v>0.136251100104364</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03989012971945959</v>
+        <v>0.05153585849267561</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>114</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1347673062.899437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1537209642.171968</v>
+        <v>1636769966.452988</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1377334266049503</v>
+        <v>0.1407151604356651</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03624610763101624</v>
+        <v>0.03591682959158612</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>768604857.480268</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3261358045.209686</v>
+        <v>4275234894.080863</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1112405471930277</v>
+        <v>0.1238306035637229</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02653624064934899</v>
+        <v>0.02099274782932035</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>150</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1630679019.611579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2525847882.410508</v>
+        <v>3616263419.633127</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08474878799540626</v>
+        <v>0.08936070175552022</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03024144330654275</v>
+        <v>0.02713574868586648</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1262923893.7586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2266611072.407134</v>
+        <v>2156678983.765263</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09905588098245995</v>
+        <v>0.1261508387288522</v>
       </c>
       <c r="G99" t="n">
-        <v>0.026911094628019</v>
+        <v>0.02448488031344108</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1133305469.011142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4680025203.100326</v>
+        <v>4568537791.592845</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1151505817770352</v>
+        <v>0.164772755806866</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0221534402550333</v>
+        <v>0.0193145991076253</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>142</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2340012726.537882</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2818421112.026913</v>
+        <v>2556189674.4205</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1860171639347165</v>
+        <v>0.2063638672158319</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04654522714938004</v>
+        <v>0.03608208003348001</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>192</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1409210621.099753</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_467.xlsx
+++ b/output/fit_clients/fit_round_467.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2263044779.644395</v>
+        <v>1758039868.803108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09416402109159719</v>
+        <v>0.1106045862778606</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03207716972990211</v>
+        <v>0.02883807973094685</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1876355348.456692</v>
+        <v>2511190312.220117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1620188842718177</v>
+        <v>0.1186036663568423</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04487985498383502</v>
+        <v>0.04801617532511268</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3229154032.957988</v>
+        <v>3870986215.354512</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1324029581608493</v>
+        <v>0.1145119107923879</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02812053658892697</v>
+        <v>0.03033837239165181</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3685635752.987029</v>
+        <v>4062582765.450602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09790353595136508</v>
+        <v>0.07319071150809199</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04997857391504543</v>
+        <v>0.03872737417536197</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1907656009.711416</v>
+        <v>2721103416.535813</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1258984980324391</v>
+        <v>0.1161928633155787</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04163593798161928</v>
+        <v>0.03419367559559531</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2260398457.762906</v>
+        <v>2925862626.167239</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06322042074586598</v>
+        <v>0.08026552233994143</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03055660984804644</v>
+        <v>0.0361462783040142</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2560252217.413801</v>
+        <v>2829343839.812591</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1622265886893258</v>
+        <v>0.1827335730637546</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02948995497261121</v>
+        <v>0.02419476455540059</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2188714904.814354</v>
+        <v>1746365696.901538</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1688577030037037</v>
+        <v>0.132581434280891</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02749302644968469</v>
+        <v>0.03300234173466947</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3798444163.136719</v>
+        <v>4011572663.31939</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1592214698833045</v>
+        <v>0.2045229537445298</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0454058697145268</v>
+        <v>0.03358987646193237</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3902990598.015993</v>
+        <v>3446750700.699926</v>
       </c>
       <c r="F11" t="n">
-        <v>0.117775510675678</v>
+        <v>0.1600605196544793</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03476940149769493</v>
+        <v>0.03734031073062313</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2027278765.153149</v>
+        <v>2639408120.993943</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1467294340053956</v>
+        <v>0.1416659850998648</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04080184235913454</v>
+        <v>0.05394326924564068</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4979357546.461114</v>
+        <v>3638091145.583961</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0763206478579565</v>
+        <v>0.07016950041408621</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02341590325428162</v>
+        <v>0.03000992784188947</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3567811018.013871</v>
+        <v>3429669728.085498</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1777695886601105</v>
+        <v>0.1468944069853554</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03135041370591132</v>
+        <v>0.03801117452173584</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1737273860.878716</v>
+        <v>1525785689.852103</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07463730364795058</v>
+        <v>0.08599728048925021</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03242770419403634</v>
+        <v>0.02998596922876936</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2882525396.274814</v>
+        <v>2637780308.129765</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08987809574150947</v>
+        <v>0.08904625267654498</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04999241755332484</v>
+        <v>0.04983097478335811</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5247246171.698825</v>
+        <v>4499117617.389534</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1196401768305818</v>
+        <v>0.1417433443481108</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03913551637647723</v>
+        <v>0.04465231178514283</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2451031935.017661</v>
+        <v>3266271689.359748</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1575707421448886</v>
+        <v>0.1265441520763455</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03149270352970664</v>
+        <v>0.03059964795073565</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1161439537.864951</v>
+        <v>1274833553.864686</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1351424297411024</v>
+        <v>0.1244148382124023</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02639437692142534</v>
+        <v>0.02077095182822845</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1702994676.439773</v>
+        <v>2362488098.99853</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1507228957248968</v>
+        <v>0.1620715822690212</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02038474501087388</v>
+        <v>0.0229364859980361</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2002461285.187048</v>
+        <v>2370767564.99187</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0875040563734296</v>
+        <v>0.09662018801667556</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02820406708154535</v>
+        <v>0.04002210458782447</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3961498500.559212</v>
+        <v>2465572306.574167</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1336359109668197</v>
+        <v>0.09987132749010656</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05595797611314559</v>
+        <v>0.0498600117631814</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>993455630.2390207</v>
+        <v>1030975597.853063</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1460564760610685</v>
+        <v>0.1825443221318269</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03357118278749742</v>
+        <v>0.05479947969110627</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3192647326.159702</v>
+        <v>3068818731.504025</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1487508445140786</v>
+        <v>0.09792073560170421</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03507180884779599</v>
+        <v>0.03110815997050536</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1164513302.995929</v>
+        <v>1408695368.62126</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09273993098392304</v>
+        <v>0.09157055735038164</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03043260990797362</v>
+        <v>0.021209832028355</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1408830360.355301</v>
+        <v>1323927055.543656</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0749980268876074</v>
+        <v>0.1079452346668132</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03192217533849489</v>
+        <v>0.03739853871709291</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2906061696.12669</v>
+        <v>3931249476.789458</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1127958345505107</v>
+        <v>0.1352621533216185</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02658754321584122</v>
+        <v>0.02366564769672264</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2753708206.613444</v>
+        <v>3374467770.690497</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1172926078754553</v>
+        <v>0.1514239108103716</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04274093767930211</v>
+        <v>0.03450474157763598</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4387851448.38343</v>
+        <v>3774117229.707863</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1172799204239814</v>
+        <v>0.1397858905232408</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03425790754368498</v>
+        <v>0.03836899930962041</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1966377707.224037</v>
+        <v>2343819970.785107</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09286644598177597</v>
+        <v>0.09542825620508748</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02723726522574704</v>
+        <v>0.02979798156798867</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1330162777.979577</v>
+        <v>1488724329.192327</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09592543353203881</v>
+        <v>0.07782340355133957</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03824930151909851</v>
+        <v>0.05090894067627964</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1845797194.552918</v>
+        <v>1774552053.92116</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07985779674218083</v>
+        <v>0.1066256573553747</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03501132209084454</v>
+        <v>0.02973857266875041</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2265725322.518555</v>
+        <v>3015496571.39699</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1549467345786809</v>
+        <v>0.14378569779693</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04805227591356306</v>
+        <v>0.06129617004533092</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1538979701.844523</v>
+        <v>978028396.2527151</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1102270662642588</v>
+        <v>0.100985775330919</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02536478521895836</v>
+        <v>0.02787637314777267</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>912433133.518808</v>
+        <v>991109949.6212543</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09974768980928304</v>
+        <v>0.1063711640171673</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0300940075132832</v>
+        <v>0.03010801100806323</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2581075887.787519</v>
+        <v>2086946206.905572</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1451500515722243</v>
+        <v>0.1588181958772243</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02764296925271633</v>
+        <v>0.02361216986011926</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1856007557.906489</v>
+        <v>2308946577.730298</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09929967989696226</v>
+        <v>0.1037009662608025</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02831120333571999</v>
+        <v>0.0330771219799046</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1810399745.241831</v>
+        <v>1718851170.852623</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09463035315617813</v>
+        <v>0.08478100808026742</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02502354667778927</v>
+        <v>0.03076698809807008</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1392119610.549191</v>
+        <v>1869152552.19273</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1670044188408937</v>
+        <v>0.1753254053283371</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02833306643501067</v>
+        <v>0.03307544552524711</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1523824231.449286</v>
+        <v>1799043248.946289</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1066903875653678</v>
+        <v>0.1395642686238447</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05510215853681089</v>
+        <v>0.053289614095483</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1788073714.312662</v>
+        <v>2225641980.604379</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132608122892743</v>
+        <v>0.1151659369397375</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04522052014477247</v>
+        <v>0.0426324904614243</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3166763215.799751</v>
+        <v>2870151602.267742</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0908079557212552</v>
+        <v>0.1005805303596269</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03008400042537855</v>
+        <v>0.03022913374784166</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3022870750.570933</v>
+        <v>2441903221.533966</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1877200589216296</v>
+        <v>0.1762864952390092</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01777961993028376</v>
+        <v>0.01701291799733702</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1728837426.326625</v>
+        <v>1705408358.227203</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06794560297061961</v>
+        <v>0.08502648050335657</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03008826008056053</v>
+        <v>0.02436092291845832</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1943817107.182737</v>
+        <v>1684876196.721895</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1483949308172005</v>
+        <v>0.1918985011981426</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05037624240058791</v>
+        <v>0.04946604409672194</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4694171564.503593</v>
+        <v>5567235641.354899</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1768968282760255</v>
+        <v>0.1402630223584742</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0444454657620612</v>
+        <v>0.03960159869705411</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3733758031.024225</v>
+        <v>3842038192.049527</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1484597349905445</v>
+        <v>0.1804185778782933</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05561659382740329</v>
+        <v>0.03881215726679758</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3077335616.847261</v>
+        <v>4154097524.362045</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08203573472181706</v>
+        <v>0.07553063082444329</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0299577336456887</v>
+        <v>0.02517026180751443</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1229073499.447748</v>
+        <v>1652696808.719651</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1663662589619093</v>
+        <v>0.1963326439934819</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03508589011734312</v>
+        <v>0.04021182059258142</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3449611429.033872</v>
+        <v>3059437044.218283</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1276949849509512</v>
+        <v>0.1519126629465314</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05161604205528337</v>
+        <v>0.04400693377141583</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1255016781.029492</v>
+        <v>986935656.8851906</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1838977996659873</v>
+        <v>0.1694798217032522</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04915192173189856</v>
+        <v>0.04243494618250998</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3905608873.506268</v>
+        <v>4592851310.494226</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09154684566843871</v>
+        <v>0.1303781030065278</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05665075091828442</v>
+        <v>0.03990505459376761</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3534795048.483104</v>
+        <v>3717645193.611358</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1682131536411994</v>
+        <v>0.2018976593949929</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03036840666093884</v>
+        <v>0.03377363117433286</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3175876216.035909</v>
+        <v>3645159587.822897</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1211955846090642</v>
+        <v>0.1251061263015724</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03676165234715579</v>
+        <v>0.04990539358867767</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3896280295.604524</v>
+        <v>4080163012.165852</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2193230429852306</v>
+        <v>0.134828315158667</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03220765166457015</v>
+        <v>0.03061402217916631</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1791986631.539999</v>
+        <v>1185004122.730339</v>
       </c>
       <c r="F56" t="n">
-        <v>0.146677679175499</v>
+        <v>0.1377319515447593</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03765725232890912</v>
+        <v>0.04554664007566582</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3545943230.675457</v>
+        <v>3480552464.658238</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1389246691396754</v>
+        <v>0.1274484937912358</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02326675985245092</v>
+        <v>0.02159682892963332</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1546157426.315856</v>
+        <v>1847458679.172707</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1667430008558198</v>
+        <v>0.1810306786143377</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02723390750406722</v>
+        <v>0.02928636469653821</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4232444361.772084</v>
+        <v>4748227287.857147</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08247660030491254</v>
+        <v>0.08989454395205709</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04646522861048488</v>
+        <v>0.03564078134717037</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2410401771.275654</v>
+        <v>3601738643.597812</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1636103797230419</v>
+        <v>0.1950339310694859</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02688148765004267</v>
+        <v>0.0212353334179134</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2322456389.199884</v>
+        <v>2429312037.525179</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1401820958763371</v>
+        <v>0.1507702225144799</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02339376366657355</v>
+        <v>0.02528172688267058</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2034627950.46911</v>
+        <v>1631526051.332411</v>
       </c>
       <c r="F62" t="n">
-        <v>0.132409425198899</v>
+        <v>0.1567468948412026</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03475295066252274</v>
+        <v>0.03849745796158439</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5220480161.85685</v>
+        <v>5496817394.702044</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0896909330983881</v>
+        <v>0.0926849421372965</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04298856689904179</v>
+        <v>0.02966044159190984</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4898873406.912151</v>
+        <v>4882389567.595817</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1529114783429917</v>
+        <v>0.181925530726196</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02380186021804192</v>
+        <v>0.03253250693227677</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3661701231.53984</v>
+        <v>5264131811.932401</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1669450830091024</v>
+        <v>0.1628107496717927</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03034596334100644</v>
+        <v>0.0314044460202775</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5584132241.645937</v>
+        <v>4628990354.370872</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1168713144716596</v>
+        <v>0.1541127292697922</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05093672342212606</v>
+        <v>0.03492660885423671</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2109373095.642191</v>
+        <v>3165411941.003237</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08102791948047716</v>
+        <v>0.09876160329172883</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03459089909342325</v>
+        <v>0.03718703946808221</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5510354362.775365</v>
+        <v>5924202038.499092</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1419709520985327</v>
+        <v>0.1261103756422106</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04688714465814006</v>
+        <v>0.03493172254189548</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2149457303.993937</v>
+        <v>1824165626.047809</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1507190403910607</v>
+        <v>0.1238662899020067</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03858581133502901</v>
+        <v>0.05067208957480443</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3370518660.862645</v>
+        <v>2587622821.451188</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09588589211802784</v>
+        <v>0.06470374485233911</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04192434350140176</v>
+        <v>0.04446415689391828</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3471494404.046447</v>
+        <v>4548305500.780611</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1748864314576381</v>
+        <v>0.124004698876823</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02315446781075941</v>
+        <v>0.02233871822996489</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2045803748.892218</v>
+        <v>1622262575.579156</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08218567744926659</v>
+        <v>0.0668180666873853</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03690202793555936</v>
+        <v>0.04509380907046406</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2779449105.40536</v>
+        <v>3283093812.38643</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07672574678897019</v>
+        <v>0.07420818371385222</v>
       </c>
       <c r="G73" t="n">
-        <v>0.050692712179722</v>
+        <v>0.0388664432864801</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4014152037.68198</v>
+        <v>2624416067.845465</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1783737599833037</v>
+        <v>0.1138375708128866</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03171024602095733</v>
+        <v>0.02477424343273954</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1906000426.444026</v>
+        <v>1925983645.003215</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1433795599483211</v>
+        <v>0.1191989336986869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02860785383418804</v>
+        <v>0.02611796760323621</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3461013199.346257</v>
+        <v>3639890864.154673</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0886847702768386</v>
+        <v>0.1160646218774047</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03305266112896555</v>
+        <v>0.02819472969623697</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2041226422.340365</v>
+        <v>1642291920.919423</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1379319424584515</v>
+        <v>0.1736204862751477</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03125372294887331</v>
+        <v>0.02590799611614647</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4598970465.256845</v>
+        <v>3487301608.858832</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1103546280999571</v>
+        <v>0.1335786753793138</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03727678224883603</v>
+        <v>0.04102971148972766</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1767882055.076018</v>
+        <v>1485715933.459146</v>
       </c>
       <c r="F79" t="n">
-        <v>0.164414985314701</v>
+        <v>0.1676310725653183</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0381700613020727</v>
+        <v>0.02803967521532081</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4742823178.701445</v>
+        <v>5614324252.190598</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1004395778672535</v>
+        <v>0.07683024900975512</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0282305529112172</v>
+        <v>0.03178502489468763</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4482727082.205709</v>
+        <v>4910456083.643801</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09592607799848853</v>
+        <v>0.09505180030298843</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03269322822742684</v>
+        <v>0.0306315129543361</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3936292635.375696</v>
+        <v>4493540979.484161</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1533793648591741</v>
+        <v>0.1328971627077183</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02414937107680226</v>
+        <v>0.02143588317083447</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2370244692.657911</v>
+        <v>1525704360.432407</v>
       </c>
       <c r="F83" t="n">
-        <v>0.103496420733564</v>
+        <v>0.1196312507208559</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03138381415811489</v>
+        <v>0.03687536996310698</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1976954989.805005</v>
+        <v>2278631133.761527</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0751515317417248</v>
+        <v>0.1121921797591697</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04505436405336691</v>
+        <v>0.04591015545958213</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2698029886.400201</v>
+        <v>3610733994.229256</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1830971551058354</v>
+        <v>0.1604335790703657</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04083282528345053</v>
+        <v>0.0381828098978535</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1704537519.941974</v>
+        <v>2535053550.16803</v>
       </c>
       <c r="F86" t="n">
-        <v>0.160408368256359</v>
+        <v>0.118286444585794</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01686161192511406</v>
+        <v>0.02625040794475538</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1102389975.033426</v>
+        <v>1099242898.484783</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1549529829991295</v>
+        <v>0.1259730806030611</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04244905512323708</v>
+        <v>0.03719098624117101</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3649689292.343029</v>
+        <v>3102020897.869542</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1668249276389501</v>
+        <v>0.1160664981041072</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0368740072028249</v>
+        <v>0.03489615101202562</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3401250722.131183</v>
+        <v>2719900873.402996</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1409505867495537</v>
+        <v>0.1362251115326154</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02860647560307424</v>
+        <v>0.02871697716910403</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2167438461.142868</v>
+        <v>1525049829.248732</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1152507480504657</v>
+        <v>0.1255825448673262</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05649384910981068</v>
+        <v>0.04636389873009621</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1774007239.371882</v>
+        <v>2105138931.025987</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1253684322870897</v>
+        <v>0.1920207363690521</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05002474286800274</v>
+        <v>0.04513802698886403</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2784807214.643332</v>
+        <v>2136576470.480894</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0935599144716479</v>
+        <v>0.06961599652560267</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04544364461558494</v>
+        <v>0.04698301716030884</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4162067325.449825</v>
+        <v>4213166148.905998</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1003213274887879</v>
+        <v>0.09185793385615755</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03811797079849754</v>
+        <v>0.03555399778324737</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1559489342.2788</v>
+        <v>1844856279.3694</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1170103596304755</v>
+        <v>0.118778288376879</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0296285518539192</v>
+        <v>0.03599978286346438</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2815465969.01616</v>
+        <v>1973704569.863809</v>
       </c>
       <c r="F95" t="n">
-        <v>0.136251100104364</v>
+        <v>0.09158787481266314</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05153585849267561</v>
+        <v>0.03442311557092353</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1636769966.452988</v>
+        <v>1774381056.648402</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1407151604356651</v>
+        <v>0.1369108354515813</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03591682959158612</v>
+        <v>0.04517598045108736</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4275234894.080863</v>
+        <v>4519596757.808578</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1238306035637229</v>
+        <v>0.1176241285699139</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02099274782932035</v>
+        <v>0.02139890281469721</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3616263419.633127</v>
+        <v>3086055854.917765</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08936070175552022</v>
+        <v>0.08626778580375741</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02713574868586648</v>
+        <v>0.02381399099614846</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2156678983.765263</v>
+        <v>2665118243.289397</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1261508387288522</v>
+        <v>0.1001281704230404</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02448488031344108</v>
+        <v>0.03352329789282768</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4568537791.592845</v>
+        <v>4695903316.604359</v>
       </c>
       <c r="F100" t="n">
-        <v>0.164772755806866</v>
+        <v>0.1654284564333062</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0193145991076253</v>
+        <v>0.02172704656174669</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2556189674.4205</v>
+        <v>3244878432.540108</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2063638672158319</v>
+        <v>0.1448021106808546</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03608208003348001</v>
+        <v>0.05334364678632603</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_467.xlsx
+++ b/output/fit_clients/fit_round_467.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1758039868.803108</v>
+        <v>2085388804.929631</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1106045862778606</v>
+        <v>0.1112460572859659</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02883807973094685</v>
+        <v>0.03270962759142795</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2511190312.220117</v>
+        <v>2506231249.459157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1186036663568423</v>
+        <v>0.1279758432371623</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04801617532511268</v>
+        <v>0.04182403861484181</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3870986215.354512</v>
+        <v>3550328761.034973</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1145119107923879</v>
+        <v>0.1414571246382438</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03033837239165181</v>
+        <v>0.03536388800188583</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>236</v>
+      </c>
+      <c r="J4" t="n">
+        <v>467</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4062582765.450602</v>
+        <v>4091590310.193707</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07319071150809199</v>
+        <v>0.1085260710869208</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03872737417536197</v>
+        <v>0.04713280431623587</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>197</v>
+      </c>
+      <c r="J5" t="n">
+        <v>467</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2721103416.535813</v>
+        <v>2692272145.008087</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1161928633155787</v>
+        <v>0.1054076943374421</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03419367559559531</v>
+        <v>0.03894031158545944</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2925862626.167239</v>
+        <v>2210605716.477582</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08026552233994143</v>
+        <v>0.09461661657279026</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0361462783040142</v>
+        <v>0.03208237626922734</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2829343839.812591</v>
+        <v>3760959907.876106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1827335730637546</v>
+        <v>0.1627976687721685</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02419476455540059</v>
+        <v>0.02953427937076453</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>132</v>
+      </c>
+      <c r="J8" t="n">
+        <v>467</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1746365696.901538</v>
+        <v>2225751494.808541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.132581434280891</v>
+        <v>0.1260031311133588</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03300234173466947</v>
+        <v>0.02972236276352068</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4011572663.31939</v>
+        <v>5502108847.557928</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2045229537445298</v>
+        <v>0.214609836981814</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03358987646193237</v>
+        <v>0.04615249850253703</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>359</v>
+      </c>
+      <c r="J10" t="n">
+        <v>466</v>
+      </c>
+      <c r="K10" t="n">
+        <v>29.84442614663466</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3446750700.699926</v>
+        <v>3265319872.958775</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1600605196544793</v>
+        <v>0.1461786204441043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03734031073062313</v>
+        <v>0.04201726858320582</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>194</v>
+      </c>
+      <c r="J11" t="n">
+        <v>465</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2639408120.993943</v>
+        <v>3204735965.658036</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1416659850998648</v>
+        <v>0.1549031225681775</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05394326924564068</v>
+        <v>0.03724481101423156</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3638091145.583961</v>
+        <v>4480230978.880944</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07016950041408621</v>
+        <v>0.07131335800999326</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03000992784188947</v>
+        <v>0.02846127777463438</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>243</v>
+      </c>
+      <c r="J13" t="n">
+        <v>466</v>
+      </c>
+      <c r="K13" t="n">
+        <v>32.10400056901999</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3429669728.085498</v>
+        <v>2747327330.397967</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1468944069853554</v>
+        <v>0.1206086006982466</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03801117452173584</v>
+        <v>0.04247190680074994</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>106</v>
+      </c>
+      <c r="J14" t="n">
+        <v>464</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1525785689.852103</v>
+        <v>1698600636.952145</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08599728048925021</v>
+        <v>0.07976412374823379</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02998596922876936</v>
+        <v>0.03043090242135631</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2637780308.129765</v>
+        <v>1862629208.931809</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08904625267654498</v>
+        <v>0.09045065725499261</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04983097478335811</v>
+        <v>0.04885218098107917</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4499117617.389534</v>
+        <v>4848941343.739034</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1417433443481108</v>
+        <v>0.1487298509121109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04465231178514283</v>
+        <v>0.04582437641945418</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>229</v>
+      </c>
+      <c r="J17" t="n">
+        <v>466</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31.23273535007085</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3266271689.359748</v>
+        <v>2833969932.7274</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1265441520763455</v>
+        <v>0.1161409081085575</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03059964795073565</v>
+        <v>0.02877727384509329</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>463</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1274833553.864686</v>
+        <v>1288967071.748003</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1244148382124023</v>
+        <v>0.1345508656521384</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02077095182822845</v>
+        <v>0.01686272273140286</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2362488098.99853</v>
+        <v>2355171731.398725</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1620715822690212</v>
+        <v>0.1164358267453963</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0229364859980361</v>
+        <v>0.02150671596958903</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2370767564.99187</v>
+        <v>2568565976.859454</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09662018801667556</v>
+        <v>0.06688912371972086</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04002210458782447</v>
+        <v>0.04056465802301146</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2465572306.574167</v>
+        <v>3203732877.041701</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09987132749010656</v>
+        <v>0.09064136783096002</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0498600117631814</v>
+        <v>0.05674327752804816</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>136</v>
+      </c>
+      <c r="J22" t="n">
+        <v>465</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1030975597.853063</v>
+        <v>1195729619.104054</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1825443221318269</v>
+        <v>0.162316448825465</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05479947969110627</v>
+        <v>0.03491236751122843</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3068818731.504025</v>
+        <v>3623507447.714273</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09792073560170421</v>
+        <v>0.1130722675361607</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03110815997050536</v>
+        <v>0.03069497540209296</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>147</v>
+      </c>
+      <c r="J24" t="n">
+        <v>467</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1408695368.62126</v>
+        <v>1306913838.70757</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09157055735038164</v>
+        <v>0.1029004294513152</v>
       </c>
       <c r="G25" t="n">
-        <v>0.021209832028355</v>
+        <v>0.0294376989803103</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1323927055.543656</v>
+        <v>878795122.8368741</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1079452346668132</v>
+        <v>0.09228580728459986</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03739853871709291</v>
+        <v>0.03329238201230646</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3931249476.789458</v>
+        <v>3592159840.923497</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1352621533216185</v>
+        <v>0.1220833715719289</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02366564769672264</v>
+        <v>0.01846498432934043</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>206</v>
+      </c>
+      <c r="J27" t="n">
+        <v>466</v>
+      </c>
+      <c r="K27" t="n">
+        <v>29.0046538852924</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3374467770.690497</v>
+        <v>2460255777.240449</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1514239108103716</v>
+        <v>0.09720081599547087</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03450474157763598</v>
+        <v>0.03930668171979554</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>116</v>
+      </c>
+      <c r="J28" t="n">
+        <v>464</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3774117229.707863</v>
+        <v>4503635192.602895</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1397858905232408</v>
+        <v>0.1229769518772085</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03836899930962041</v>
+        <v>0.04455927200112333</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>374</v>
+      </c>
+      <c r="J29" t="n">
+        <v>467</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2343819970.785107</v>
+        <v>2257508681.631634</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09542825620508748</v>
+        <v>0.1219692923009014</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02979798156798867</v>
+        <v>0.03110639529352865</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1488724329.192327</v>
+        <v>1089049661.852437</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07782340355133957</v>
+        <v>0.09230643912339687</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05090894067627964</v>
+        <v>0.04667176128543657</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1774552053.92116</v>
+        <v>1448870661.882488</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1066256573553747</v>
+        <v>0.07775196198955427</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02973857266875041</v>
+        <v>0.03321523576351985</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3015496571.39699</v>
+        <v>3006898329.567348</v>
       </c>
       <c r="F33" t="n">
-        <v>0.14378569779693</v>
+        <v>0.129006196280901</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06129617004533092</v>
+        <v>0.04980120505345496</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>978028396.2527151</v>
+        <v>1251378387.685483</v>
       </c>
       <c r="F34" t="n">
-        <v>0.100985775330919</v>
+        <v>0.1141519923966232</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02787637314777267</v>
+        <v>0.02587675223957139</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>991109949.6212543</v>
+        <v>1256680408.45702</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1063711640171673</v>
+        <v>0.1000469405273711</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03010801100806323</v>
+        <v>0.03820188027269281</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2086946206.905572</v>
+        <v>3098507346.902225</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1588181958772243</v>
+        <v>0.1613972650149891</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02361216986011926</v>
+        <v>0.01775588557061628</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2308946577.730298</v>
+        <v>1904761305.765568</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1037009662608025</v>
+        <v>0.08433179532774752</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0330771219799046</v>
+        <v>0.02791528609158199</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1718851170.852623</v>
+        <v>2129708765.8765</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08478100808026742</v>
+        <v>0.1116963331594586</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03076698809807008</v>
+        <v>0.0314826265287458</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1869152552.19273</v>
+        <v>1424151282.545962</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1753254053283371</v>
+        <v>0.1461146490392172</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03307544552524711</v>
+        <v>0.02388830108639254</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1799043248.946289</v>
+        <v>1267045582.442184</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1395642686238447</v>
+        <v>0.154955768129818</v>
       </c>
       <c r="G40" t="n">
-        <v>0.053289614095483</v>
+        <v>0.03819450821435785</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2225641980.604379</v>
+        <v>1819164071.561727</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1151659369397375</v>
+        <v>0.102795265014087</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0426324904614243</v>
+        <v>0.03134766136661664</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2870151602.267742</v>
+        <v>2899559550.719964</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1005805303596269</v>
+        <v>0.1014816299913672</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03022913374784166</v>
+        <v>0.03809980618348019</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>204</v>
+      </c>
+      <c r="J42" t="n">
+        <v>463</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2441903221.533966</v>
+        <v>2183211900.283881</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1762864952390092</v>
+        <v>0.1259240932963236</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01701291799733702</v>
+        <v>0.0178803397397375</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1705408358.227203</v>
+        <v>1560548971.098572</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08502648050335657</v>
+        <v>0.07795235445607972</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02436092291845832</v>
+        <v>0.03263844953189633</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1684876196.721895</v>
+        <v>1963499581.768606</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1918985011981426</v>
+        <v>0.134519477118037</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04946604409672194</v>
+        <v>0.03857676967739861</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5567235641.354899</v>
+        <v>4500532753.726922</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1402630223584742</v>
+        <v>0.1536309430515599</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03960159869705411</v>
+        <v>0.05941786805728417</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>276</v>
+      </c>
+      <c r="J46" t="n">
+        <v>467</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2078,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3842038192.049527</v>
+        <v>3710442003.712248</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1804185778782933</v>
+        <v>0.1719458899320875</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03881215726679758</v>
+        <v>0.03705444564360685</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>211</v>
+      </c>
+      <c r="J47" t="n">
+        <v>466</v>
+      </c>
+      <c r="K47" t="n">
+        <v>28.4545794011063</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2121,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4154097524.362045</v>
+        <v>3811909560.742563</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07553063082444329</v>
+        <v>0.06881657354316804</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02517026180751443</v>
+        <v>0.03053262626540849</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>232</v>
+      </c>
+      <c r="J48" t="n">
+        <v>467</v>
+      </c>
+      <c r="K48" t="n">
+        <v>33.86206323740713</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1652696808.719651</v>
+        <v>1516606758.641314</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1963326439934819</v>
+        <v>0.1892111239904937</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04021182059258142</v>
+        <v>0.02773413658613543</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3059437044.218283</v>
+        <v>4192115046.655946</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1519126629465314</v>
+        <v>0.1729275109628573</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04400693377141583</v>
+        <v>0.03442002700042366</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>167</v>
+      </c>
+      <c r="J50" t="n">
+        <v>467</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>986935656.8851906</v>
+        <v>1461434558.465715</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1694798217032522</v>
+        <v>0.1934456962896698</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04243494618250998</v>
+        <v>0.04110768630621679</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4592851310.494226</v>
+        <v>3411857492.93449</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1303781030065278</v>
+        <v>0.107519860043969</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03990505459376761</v>
+        <v>0.06086628174967935</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>264</v>
+      </c>
+      <c r="J52" t="n">
+        <v>466</v>
+      </c>
+      <c r="K52" t="n">
+        <v>24.9316637273886</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3717645193.611358</v>
+        <v>2310959738.893393</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2018976593949929</v>
+        <v>0.1976653662996563</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03377363117433286</v>
+        <v>0.03462874807792981</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3645159587.822897</v>
+        <v>3396825635.261395</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1251061263015724</v>
+        <v>0.1137941670838142</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04990539358867767</v>
+        <v>0.05164549061998071</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>247</v>
+      </c>
+      <c r="J54" t="n">
+        <v>467</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4080163012.165852</v>
+        <v>3194380232.262823</v>
       </c>
       <c r="F55" t="n">
-        <v>0.134828315158667</v>
+        <v>0.1465883895235355</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03061402217916631</v>
+        <v>0.03231132563690049</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>231</v>
+      </c>
+      <c r="J55" t="n">
+        <v>466</v>
+      </c>
+      <c r="K55" t="n">
+        <v>24.09368084001361</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1185004122.730339</v>
+        <v>1233944956.683697</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1377319515447593</v>
+        <v>0.1650190256988368</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04554664007566582</v>
+        <v>0.04471404460330809</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3480552464.658238</v>
+        <v>3852506908.859663</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1274484937912358</v>
+        <v>0.1731513327725418</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02159682892963332</v>
+        <v>0.0170557607321731</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>200</v>
+      </c>
+      <c r="J57" t="n">
+        <v>467</v>
+      </c>
+      <c r="K57" t="n">
+        <v>35.70934549659432</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1847458679.172707</v>
+        <v>1642022173.756879</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1810306786143377</v>
+        <v>0.1686270919638659</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02928636469653821</v>
+        <v>0.02992052889474429</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4748227287.857147</v>
+        <v>4799639227.462835</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08989454395205709</v>
+        <v>0.08964503974223817</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03564078134717037</v>
+        <v>0.03524502008778112</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>229</v>
+      </c>
+      <c r="J59" t="n">
+        <v>466</v>
+      </c>
+      <c r="K59" t="n">
+        <v>30.33486950092398</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3601738643.597812</v>
+        <v>2417031538.845275</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1950339310694859</v>
+        <v>0.1880382287894469</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0212353334179134</v>
+        <v>0.02972133445137705</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>91</v>
+      </c>
+      <c r="J60" t="n">
+        <v>465</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2429312037.525179</v>
+        <v>2469558729.78819</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1507702225144799</v>
+        <v>0.1335285524801499</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02528172688267058</v>
+        <v>0.02466755227639897</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1631526051.332411</v>
+        <v>2045368444.146701</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1567468948412026</v>
+        <v>0.1289064050603185</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03849745796158439</v>
+        <v>0.03343035677035638</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5496817394.702044</v>
+        <v>5259088042.17248</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0926849421372965</v>
+        <v>0.0753881562506927</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02966044159190984</v>
+        <v>0.03481903334388693</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>234</v>
+      </c>
+      <c r="J63" t="n">
+        <v>467</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4882389567.595817</v>
+        <v>4802343664.215282</v>
       </c>
       <c r="F64" t="n">
-        <v>0.181925530726196</v>
+        <v>0.1910591337627626</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03253250693227677</v>
+        <v>0.02693911379206587</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>234</v>
+      </c>
+      <c r="J64" t="n">
+        <v>466</v>
+      </c>
+      <c r="K64" t="n">
+        <v>30.95107253984708</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5264131811.932401</v>
+        <v>5045778646.93393</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1628107496717927</v>
+        <v>0.119632452082475</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0314044460202775</v>
+        <v>0.0314999430138795</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>331</v>
+      </c>
+      <c r="J65" t="n">
+        <v>466</v>
+      </c>
+      <c r="K65" t="n">
+        <v>29.8245799125963</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4628990354.370872</v>
+        <v>3764271252.658411</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1541127292697922</v>
+        <v>0.1037053338608664</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03492660885423671</v>
+        <v>0.03963600559203177</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>230</v>
+      </c>
+      <c r="J66" t="n">
+        <v>467</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3165411941.003237</v>
+        <v>2490432279.767129</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09876160329172883</v>
+        <v>0.07972871677566325</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03718703946808221</v>
+        <v>0.04350829037712303</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5924202038.499092</v>
+        <v>5759723826.174596</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1261103756422106</v>
+        <v>0.1389503366899319</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03493172254189548</v>
+        <v>0.04260038683792675</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>254</v>
+      </c>
+      <c r="J68" t="n">
+        <v>467</v>
+      </c>
+      <c r="K68" t="n">
+        <v>32.91592041353583</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1824165626.047809</v>
+        <v>2476436891.926419</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1238662899020067</v>
+        <v>0.1544775649835758</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05067208957480443</v>
+        <v>0.0471505212002768</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2901,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2587622821.451188</v>
+        <v>3168745950.526464</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06470374485233911</v>
+        <v>0.06383751769225073</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04446415689391828</v>
+        <v>0.04240207407886899</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>69</v>
+      </c>
+      <c r="J70" t="n">
+        <v>467</v>
+      </c>
+      <c r="K70" t="n">
+        <v>35.21209218909873</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4548305500.780611</v>
+        <v>5388487189.125821</v>
       </c>
       <c r="F71" t="n">
-        <v>0.124004698876823</v>
+        <v>0.1672374643246867</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02233871822996489</v>
+        <v>0.02532237452558014</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>317</v>
+      </c>
+      <c r="J71" t="n">
+        <v>467</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1622262575.579156</v>
+        <v>1721370846.876203</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0668180666873853</v>
+        <v>0.09271525710832153</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04509380907046406</v>
+        <v>0.05183906286672988</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3283093812.38643</v>
+        <v>3334409050.024707</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07420818371385222</v>
+        <v>0.09183786929019765</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0388664432864801</v>
+        <v>0.03703816975052686</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>467</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2624416067.845465</v>
+        <v>3894697726.000699</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1138375708128866</v>
+        <v>0.1750075260003769</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02477424343273954</v>
+        <v>0.0311798005485353</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>136</v>
+      </c>
+      <c r="J74" t="n">
+        <v>467</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1925983645.003215</v>
+        <v>1714840987.633568</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1191989336986869</v>
+        <v>0.1461555642328488</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02611796760323621</v>
+        <v>0.02572594494097474</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3639890864.154673</v>
+        <v>3765579696.792138</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1160646218774047</v>
+        <v>0.08469747326918974</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02819472969623697</v>
+        <v>0.03210707044952128</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>223</v>
+      </c>
+      <c r="J76" t="n">
+        <v>466</v>
+      </c>
+      <c r="K76" t="n">
+        <v>30.40003334234736</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1642291920.919423</v>
+        <v>2191973730.191232</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1736204862751477</v>
+        <v>0.1147050239766687</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02590799611614647</v>
+        <v>0.02134505084545398</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3487301608.858832</v>
+        <v>3317170341.983281</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1335786753793138</v>
+        <v>0.1032576126146078</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04102971148972766</v>
+        <v>0.04104147407939181</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>232</v>
+      </c>
+      <c r="J78" t="n">
+        <v>465</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1485715933.459146</v>
+        <v>1531447039.220837</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1676310725653183</v>
+        <v>0.1223683753619497</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02803967521532081</v>
+        <v>0.02731406640268334</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5614324252.190598</v>
+        <v>5290656467.936789</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07683024900975512</v>
+        <v>0.1095363157498312</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03178502489468763</v>
+        <v>0.03001593580431081</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>228</v>
+      </c>
+      <c r="J80" t="n">
+        <v>466</v>
+      </c>
+      <c r="K80" t="n">
+        <v>28.8976606723404</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4910456083.643801</v>
+        <v>3940773388.771122</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09505180030298843</v>
+        <v>0.1212739385560438</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0306315129543361</v>
+        <v>0.02283763855298192</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>217</v>
+      </c>
+      <c r="J81" t="n">
+        <v>466</v>
+      </c>
+      <c r="K81" t="n">
+        <v>31.54087360916892</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4493540979.484161</v>
+        <v>5563117452.281743</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1328971627077183</v>
+        <v>0.2168326760136459</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02143588317083447</v>
+        <v>0.02820259422871217</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>309</v>
+      </c>
+      <c r="J82" t="n">
+        <v>467</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1525704360.432407</v>
+        <v>1603541284.487333</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1196312507208559</v>
+        <v>0.1429079822902749</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03687536996310698</v>
+        <v>0.04356581217538827</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2278631133.761527</v>
+        <v>1719516924.997319</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1121921797591697</v>
+        <v>0.08562200260182062</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04591015545958213</v>
+        <v>0.04895815445261588</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3610733994.229256</v>
+        <v>3025708857.465406</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1604335790703657</v>
+        <v>0.1348193739448835</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0381828098978535</v>
+        <v>0.03804625618511939</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2535053550.16803</v>
+        <v>2331545147.58042</v>
       </c>
       <c r="F86" t="n">
-        <v>0.118286444585794</v>
+        <v>0.1462408828334857</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02625040794475538</v>
+        <v>0.02647302490722706</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1099242898.484783</v>
+        <v>1204501633.188604</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1259730806030611</v>
+        <v>0.1794313780679035</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03719098624117101</v>
+        <v>0.03066876083948215</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3102020897.869542</v>
+        <v>2468395484.756474</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1160664981041072</v>
+        <v>0.1356973301901082</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03489615101202562</v>
+        <v>0.02787194390487375</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2719900873.402996</v>
+        <v>2329930628.946254</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1362251115326154</v>
+        <v>0.1292107622261371</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02871697716910403</v>
+        <v>0.03231121076215801</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="n">
+        <v>30.36159506194273</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1525049829.248732</v>
+        <v>2118197501.116669</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1255825448673262</v>
+        <v>0.121047389595001</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04636389873009621</v>
+        <v>0.04936593767097928</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2105138931.025987</v>
+        <v>1987758635.208711</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1920207363690521</v>
+        <v>0.1182923301392364</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04513802698886403</v>
+        <v>0.03839482851099949</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2136576470.480894</v>
+        <v>2649868544.123281</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06961599652560267</v>
+        <v>0.08068676591378862</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04698301716030884</v>
+        <v>0.04774149819499183</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4213166148.905998</v>
+        <v>3865932762.219514</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09185793385615755</v>
+        <v>0.127918243522136</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03555399778324737</v>
+        <v>0.03547199403539342</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>224</v>
+      </c>
+      <c r="J93" t="n">
+        <v>467</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1844856279.3694</v>
+        <v>2017149808.586303</v>
       </c>
       <c r="F94" t="n">
-        <v>0.118778288376879</v>
+        <v>0.1537944140902005</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03599978286346438</v>
+        <v>0.03887918204403913</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1973704569.863809</v>
+        <v>3261821879.216829</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09158787481266314</v>
+        <v>0.1243908705197185</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03442311557092353</v>
+        <v>0.05119065062663668</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1774381056.648402</v>
+        <v>1540933449.966725</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1369108354515813</v>
+        <v>0.1393520635792314</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04517598045108736</v>
+        <v>0.03174473994164359</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4519596757.808578</v>
+        <v>3478989615.128058</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1176241285699139</v>
+        <v>0.1449721445153601</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02139890281469721</v>
+        <v>0.02588707068232212</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>243</v>
+      </c>
+      <c r="J97" t="n">
+        <v>466</v>
+      </c>
+      <c r="K97" t="n">
+        <v>27.2419414369676</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3086055854.917765</v>
+        <v>3269084505.176183</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08626778580375741</v>
+        <v>0.1177665971594121</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02381399099614846</v>
+        <v>0.02235057262375002</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>117</v>
+      </c>
+      <c r="J98" t="n">
+        <v>464</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2665118243.289397</v>
+        <v>3209767065.544653</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1001281704230404</v>
+        <v>0.09967353834318875</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03352329789282768</v>
+        <v>0.02835223220251952</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4695903316.604359</v>
+        <v>4021356323.700217</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1654284564333062</v>
+        <v>0.1703376741463492</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02172704656174669</v>
+        <v>0.02012503413156887</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>218</v>
+      </c>
+      <c r="J100" t="n">
+        <v>467</v>
+      </c>
+      <c r="K100" t="n">
+        <v>32.59311037646467</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3244878432.540108</v>
+        <v>2855873941.007535</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1448021106808546</v>
+        <v>0.1361706529097543</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05334364678632603</v>
+        <v>0.0583821196066342</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
